--- a/backtesting/sp500Backtest.xlsx
+++ b/backtesting/sp500Backtest.xlsx
@@ -34352,13 +34352,13 @@
         <v>45355</v>
       </c>
       <c r="B1060" t="n">
-        <v>5134.8701171875</v>
+        <v>5142.8798828125</v>
       </c>
       <c r="C1060" t="n">
-        <v>5032.3189453125</v>
+        <v>5032.71943359375</v>
       </c>
       <c r="D1060" t="n">
-        <v>4532.772497558593</v>
+        <v>4532.812546386719</v>
       </c>
       <c r="E1060" t="n">
         <v>1</v>
@@ -34367,16 +34367,16 @@
         <v>0</v>
       </c>
       <c r="G1060" t="n">
-        <v>-0.0004301978758147751</v>
+        <v>0.001129008035556378</v>
       </c>
       <c r="H1060" t="n">
         <v>1</v>
       </c>
       <c r="I1060" t="n">
-        <v>-0.0004301978758147751</v>
+        <v>0.001129008035556378</v>
       </c>
       <c r="J1060" t="n">
-        <v>3553.758923638068</v>
+        <v>3559.30235032978</v>
       </c>
     </row>
   </sheetData>
